--- a/2022/Realme/AUGUST/13.08.2022/realme Bank Statement Aug-20222.xlsx
+++ b/2022/Realme/AUGUST/13.08.2022/realme Bank Statement Aug-20222.xlsx
@@ -2452,6 +2452,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2479,12 +2491,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2497,11 +2503,56 @@
     <xf numFmtId="0" fontId="36" fillId="35" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="41" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2517,57 +2568,6 @@
     </xf>
     <xf numFmtId="1" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4052,67 +4052,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="232" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="228"/>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="228"/>
-      <c r="P1" s="228"/>
-      <c r="Q1" s="228"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
+      <c r="O1" s="232"/>
+      <c r="P1" s="232"/>
+      <c r="Q1" s="232"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
-      <c r="Q2" s="229"/>
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="233"/>
+      <c r="K2" s="233"/>
+      <c r="L2" s="233"/>
+      <c r="M2" s="233"/>
+      <c r="N2" s="233"/>
+      <c r="O2" s="233"/>
+      <c r="P2" s="233"/>
+      <c r="Q2" s="233"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="234" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="231"/>
-      <c r="C3" s="231"/>
-      <c r="D3" s="231"/>
-      <c r="E3" s="231"/>
-      <c r="F3" s="231"/>
-      <c r="G3" s="231"/>
-      <c r="H3" s="231"/>
-      <c r="I3" s="231"/>
-      <c r="J3" s="231"/>
-      <c r="K3" s="231"/>
-      <c r="L3" s="231"/>
-      <c r="M3" s="231"/>
-      <c r="N3" s="231"/>
-      <c r="O3" s="231"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="232"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
+      <c r="N3" s="235"/>
+      <c r="O3" s="235"/>
+      <c r="P3" s="235"/>
+      <c r="Q3" s="236"/>
       <c r="S3" s="42"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4121,52 +4121,52 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="62" customFormat="1">
-      <c r="A4" s="233" t="s">
+      <c r="A4" s="237" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="235" t="s">
+      <c r="B4" s="239" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="237" t="s">
+      <c r="D4" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="237" t="s">
+      <c r="F4" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="237" t="s">
+      <c r="G4" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="237" t="s">
+      <c r="H4" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="237" t="s">
+      <c r="I4" s="228" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="237" t="s">
+      <c r="J4" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="237" t="s">
+      <c r="K4" s="228" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="237" t="s">
+      <c r="L4" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="M4" s="237" t="s">
+      <c r="M4" s="228" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="243" t="s">
+      <c r="N4" s="230" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="241" t="s">
+      <c r="O4" s="243" t="s">
         <v>13</v>
       </c>
-      <c r="P4" s="239" t="s">
+      <c r="P4" s="241" t="s">
         <v>29</v>
       </c>
       <c r="Q4" s="61" t="s">
@@ -4179,22 +4179,22 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="1:24" s="62" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="234"/>
-      <c r="B5" s="236"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="238"/>
-      <c r="J5" s="238"/>
-      <c r="K5" s="238"/>
-      <c r="L5" s="238"/>
-      <c r="M5" s="238"/>
-      <c r="N5" s="244"/>
-      <c r="O5" s="242"/>
-      <c r="P5" s="240"/>
+      <c r="A5" s="238"/>
+      <c r="B5" s="240"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="229"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="229"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="229"/>
+      <c r="M5" s="229"/>
+      <c r="N5" s="231"/>
+      <c r="O5" s="244"/>
+      <c r="P5" s="242"/>
       <c r="Q5" s="66" t="s">
         <v>30</v>
       </c>
@@ -7188,6 +7188,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7204,9 +7207,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7243,14 +7243,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="19.5">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="256"/>
+      <c r="B1" s="250"/>
+      <c r="C1" s="250"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="251"/>
       <c r="H1" s="38"/>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -7303,14 +7303,14 @@
       <c r="BE1" s="113"/>
     </row>
     <row r="2" spans="1:57" ht="15" customHeight="1">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="252" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="259"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="254"/>
       <c r="H2" s="38"/>
       <c r="I2" s="113"/>
       <c r="J2" s="113"/>
@@ -7363,14 +7363,14 @@
       <c r="BE2" s="113"/>
     </row>
     <row r="3" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="261"/>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="262"/>
+      <c r="B3" s="256"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="257"/>
       <c r="H3" s="38"/>
       <c r="I3" s="113"/>
       <c r="J3" s="113"/>
@@ -9361,13 +9361,13 @@
       <c r="BE34" s="113"/>
     </row>
     <row r="35" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A35" s="264" t="s">
+      <c r="A35" s="259" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="265"/>
-      <c r="C35" s="265"/>
-      <c r="D35" s="265"/>
-      <c r="E35" s="266"/>
+      <c r="B35" s="260"/>
+      <c r="C35" s="260"/>
+      <c r="D35" s="260"/>
+      <c r="E35" s="261"/>
       <c r="F35" s="41"/>
       <c r="G35" s="50"/>
       <c r="H35" s="38"/>
@@ -9422,12 +9422,12 @@
       <c r="BE35" s="113"/>
     </row>
     <row r="36" spans="1:57" ht="13.5" thickBot="1">
-      <c r="A36" s="252" t="s">
+      <c r="A36" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="263"/>
-      <c r="C36" s="263"/>
-      <c r="D36" s="253"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="248"/>
       <c r="E36" s="131">
         <f>F33-C119</f>
         <v>0</v>
@@ -9567,12 +9567,12 @@
       </c>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="245" t="s">
+      <c r="G38" s="262" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="245"/>
-      <c r="I38" s="245"/>
-      <c r="J38" s="245"/>
+      <c r="H38" s="262"/>
+      <c r="I38" s="262"/>
+      <c r="J38" s="262"/>
       <c r="K38" s="113"/>
       <c r="L38" s="113"/>
       <c r="M38" s="113"/>
@@ -9636,11 +9636,11 @@
       </c>
       <c r="E39" s="41"/>
       <c r="F39" s="42"/>
-      <c r="G39" s="249" t="s">
+      <c r="G39" s="266" t="s">
         <v>88</v>
       </c>
-      <c r="H39" s="249"/>
-      <c r="I39" s="249"/>
+      <c r="H39" s="266"/>
+      <c r="I39" s="266"/>
       <c r="J39" s="147">
         <v>500</v>
       </c>
@@ -9705,11 +9705,11 @@
       </c>
       <c r="E40" s="41"/>
       <c r="F40" s="42"/>
-      <c r="G40" s="247" t="s">
+      <c r="G40" s="264" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="247"/>
-      <c r="I40" s="247"/>
+      <c r="H40" s="264"/>
+      <c r="I40" s="264"/>
       <c r="J40" s="147">
         <v>3000</v>
       </c>
@@ -9776,11 +9776,11 @@
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="42"/>
-      <c r="G41" s="248" t="s">
+      <c r="G41" s="265" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="248"/>
-      <c r="I41" s="248"/>
+      <c r="H41" s="265"/>
+      <c r="I41" s="265"/>
       <c r="J41" s="147">
         <v>1800</v>
       </c>
@@ -9838,11 +9838,11 @@
       <c r="C42" s="166"/>
       <c r="D42" s="168"/>
       <c r="F42" s="42"/>
-      <c r="G42" s="248" t="s">
+      <c r="G42" s="265" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="248"/>
-      <c r="I42" s="248"/>
+      <c r="H42" s="265"/>
+      <c r="I42" s="265"/>
       <c r="J42" s="147">
         <v>1500</v>
       </c>
@@ -9903,11 +9903,11 @@
         <v>10</v>
       </c>
       <c r="F43" s="113"/>
-      <c r="G43" s="248" t="s">
+      <c r="G43" s="265" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="248"/>
-      <c r="I43" s="248"/>
+      <c r="H43" s="265"/>
+      <c r="I43" s="265"/>
       <c r="J43" s="147">
         <v>4460</v>
       </c>
@@ -9966,11 +9966,11 @@
         <v>83</v>
       </c>
       <c r="E44" s="41"/>
-      <c r="G44" s="248" t="s">
+      <c r="G44" s="265" t="s">
         <v>92</v>
       </c>
-      <c r="H44" s="248"/>
-      <c r="I44" s="248"/>
+      <c r="H44" s="265"/>
+      <c r="I44" s="265"/>
       <c r="J44" s="147">
         <v>500</v>
       </c>
@@ -10033,11 +10033,11 @@
         <v>91</v>
       </c>
       <c r="E45" s="41"/>
-      <c r="G45" s="248" t="s">
+      <c r="G45" s="265" t="s">
         <v>97</v>
       </c>
-      <c r="H45" s="248"/>
-      <c r="I45" s="248"/>
+      <c r="H45" s="265"/>
+      <c r="I45" s="265"/>
       <c r="J45" s="147">
         <v>11920</v>
       </c>
@@ -10097,11 +10097,11 @@
       </c>
       <c r="E46" s="41"/>
       <c r="F46" s="189"/>
-      <c r="G46" s="246" t="s">
+      <c r="G46" s="263" t="s">
         <v>56</v>
       </c>
-      <c r="H46" s="246"/>
-      <c r="I46" s="246"/>
+      <c r="H46" s="263"/>
+      <c r="I46" s="263"/>
       <c r="J46" s="212">
         <f>SUM(J39:J45)</f>
         <v>23680</v>
@@ -13783,10 +13783,10 @@
       <c r="AX116" s="113"/>
     </row>
     <row r="117" spans="1:50" ht="15.75" thickBot="1">
-      <c r="A117" s="250" t="s">
+      <c r="A117" s="245" t="s">
         <v>19</v>
       </c>
-      <c r="B117" s="251"/>
+      <c r="B117" s="246"/>
       <c r="C117" s="163">
         <f>SUM(C37:C116)</f>
         <v>964890</v>
@@ -13890,10 +13890,10 @@
       <c r="AX118" s="113"/>
     </row>
     <row r="119" spans="1:50" ht="13.5" thickBot="1">
-      <c r="A119" s="252" t="s">
+      <c r="A119" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="B119" s="253"/>
+      <c r="B119" s="248"/>
       <c r="C119" s="130">
         <f>C117</f>
         <v>964890</v>
@@ -14641,13 +14641,6 @@
     <sortCondition ref="A37"/>
   </sortState>
   <mergeCells count="16">
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A35:E35"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="G40:I40"/>
@@ -14657,6 +14650,13 @@
     <mergeCell ref="G43:I43"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A35:E35"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -14673,7 +14673,7 @@
   <dimension ref="A1:AB212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14794,7 +14794,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="137">
-        <v>6529025</v>
+        <v>6549025</v>
       </c>
       <c r="F5" s="139"/>
       <c r="I5" s="1"/>
@@ -14863,7 +14863,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="138">
-        <v>1404351.25</v>
+        <v>1384351.25</v>
       </c>
       <c r="F7" s="139"/>
       <c r="G7" s="15" t="s">
